--- a/data files/Purchase Order/HMD.xlsx
+++ b/data files/Purchase Order/HMD.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3E403B-E6E7-4ED2-BCC2-A8B7ECA02A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="58">
   <si>
     <t>To,</t>
   </si>
@@ -190,22 +191,22 @@
     <t>30</t>
   </si>
   <si>
-    <t>24/10/24</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Ph.:  97193-04441</t>
   </si>
   <si>
     <t>Near Mahila Degree College, Nawabi Road, Haldwani-263 139</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>14/10/24</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,7 +402,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -427,7 +428,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -476,16 +476,15 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -501,6 +500,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -523,7 +525,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -569,7 +577,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -599,9 +613,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -639,7 +653,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -711,7 +725,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -884,11 +898,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,7 +918,7 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>32</v>
       </c>
     </row>
@@ -928,7 +942,7 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -953,11 +967,11 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="6"/>
@@ -986,8 +1000,8 @@
       <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="44" t="s">
-        <v>54</v>
+      <c r="F9" s="42" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -999,8 +1013,8 @@
       <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>55</v>
+      <c r="F10" s="26" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
@@ -1010,20 +1024,20 @@
       <c r="B11" s="13"/>
       <c r="D11" s="1"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="D12" s="13"/>
       <c r="E12" s="1"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="5"/>
       <c r="D13" s="13"/>
       <c r="E13" s="1"/>
@@ -1044,466 +1058,446 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="30" t="s">
+      <c r="C18" s="28">
+        <v>1</v>
+      </c>
+      <c r="D18" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>2</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="30" t="s">
+      <c r="C20" s="28"/>
+      <c r="D20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="28">
+        <v>7</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="28">
         <v>6</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D23" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" s="29">
-        <v>6</v>
-      </c>
-      <c r="D23" s="30" t="s">
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="28">
+        <v>10</v>
+      </c>
+      <c r="D24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28" t="s">
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="28">
         <v>10</v>
       </c>
-      <c r="C24" s="29">
+      <c r="D26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="28">
+        <v>3</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="28">
+        <v>5</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="28">
+        <v>2</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="28">
+        <v>5</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="28">
+        <v>50</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="28">
+        <v>20</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="31"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="28"/>
+      <c r="D40" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="28"/>
+      <c r="D41" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="28"/>
+      <c r="D42" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="28">
+        <v>60</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="31"/>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="28">
+        <v>20</v>
+      </c>
+      <c r="D44" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="28">
         <v>10</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D45" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="28"/>
+      <c r="D47" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="29">
-        <v>7</v>
-      </c>
-      <c r="D26" s="30" t="s">
+      <c r="E47" s="32"/>
+      <c r="F47" s="31"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="28"/>
+      <c r="D48" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="29">
-        <v>1</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="29">
-        <v>2</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D31" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" s="29">
-        <v>60</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="29">
-        <v>60</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="32"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="32"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="32"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39" s="29">
+      <c r="E48" s="32"/>
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="28">
         <v>10</v>
       </c>
-      <c r="D39" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="32"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="32"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="32"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="32"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="29">
-        <v>20</v>
-      </c>
-      <c r="D43" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="32"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="29">
-        <v>20</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="32"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="32"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="32"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="32"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="32"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="29">
-        <v>4</v>
-      </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="32"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="35"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="37"/>
-    </row>
-    <row r="51" spans="1:6" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="C50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="adarshmed.2009@gmail.com, "/>
+    <hyperlink ref="A12" r:id="rId1" display="adarshmed.2009@gmail.com, " xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1512,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1532,7 +1526,7 @@
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1555,7 +1549,7 @@
       <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="11"/>
@@ -1585,7 +1579,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="41" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="6"/>
@@ -1614,7 +1608,7 @@
       <c r="E9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1627,7 +1621,7 @@
       <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1638,20 +1632,20 @@
       <c r="B11" s="13"/>
       <c r="D11" s="1"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="F11" s="13"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="17"/>
       <c r="D12" s="13"/>
       <c r="E12" s="1"/>
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
-      <c r="B13" s="18"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="5"/>
       <c r="D13" s="13"/>
       <c r="E13" s="1"/>
@@ -1672,466 +1666,466 @@
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" spans="1:6" s="25" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="24"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="28">
         <v>1</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="28">
         <v>4</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="32"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="31"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="28">
         <v>4</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="32"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="28">
         <v>1</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="31"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="28">
         <v>5</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="32"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="31"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="28">
         <v>5</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="29">
+      <c r="C27" s="28">
         <v>2</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="32"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="29">
+      <c r="C28" s="28">
         <v>1</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
+      <c r="D30" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="30"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
+      <c r="D31" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="30"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
+      <c r="D32" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="29">
+      <c r="C33" s="28">
         <v>20</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
+      <c r="D33" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
+      <c r="D34" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32"/>
+      <c r="D35" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="32"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="29">
+      <c r="C37" s="28">
         <v>30</v>
       </c>
-      <c r="D37" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="32"/>
+      <c r="D37" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" s="32"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="33"/>
-      <c r="F38" s="32"/>
+      <c r="D38" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="32"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D39" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="33"/>
-      <c r="F39" s="32"/>
+      <c r="D39" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="32"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D40" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="32"/>
+      <c r="D40" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="32"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="33"/>
-      <c r="F41" s="32"/>
+      <c r="D41" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="32"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D42" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E42" s="33"/>
-      <c r="F42" s="32"/>
+      <c r="D42" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E42" s="32"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="32"/>
+      <c r="D43" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28" t="s">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C44" s="29">
+      <c r="C44" s="28">
         <v>20</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="32"/>
+      <c r="D44" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="31"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="33"/>
-      <c r="F45" s="32"/>
+      <c r="D45" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="32"/>
+      <c r="F45" s="31"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="32"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="31"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="E49" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="F49" s="32"/>
+      <c r="F49" s="31"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C50" s="35"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="37"/>
-    </row>
-    <row r="51" spans="1:6" s="41" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="38" t="s">
+      <c r="C50" s="34"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="36"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="38"/>
-      <c r="C51" s="39"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="adarshmed.2009@gmail.com, "/>
+    <hyperlink ref="A12" r:id="rId1" display="adarshmed.2009@gmail.com, " xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -2139,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
